--- a/biology/Botanique/Humanics/Humanics.xlsx
+++ b/biology/Botanique/Humanics/Humanics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Réserve naturelle et parc de sculptures Humanics (anglais : Humanics Sanctuary and Sculpture Park) est un point de repère dans la capitale canadienne, Ottawa.
 Il s'agit d'un parc paysager privé avec des sculptures représentant des figures de culte, des événements clés ou des concepts abstraits associés à la plupart des religions, mythologies et enseignements éthiques du monde.
@@ -513,10 +525,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc a été fondé en juillet 2017 par le Dr Ranjit Perera sur un site spécialement acheté dans le canton de Cumberland (la banlieue est d'Ottawa, faisant partie administrativement de la ville) au 3468, Old Montreal Road.
-L'inauguration s'est déroulée en présence du premier ministre Justin Trudeau, de la première ministre de l'Ontario Caitlin Wynn, du maire d'Ottawa Jim Watson et d'autres invités d'honneur[1].
+L'inauguration s'est déroulée en présence du premier ministre Justin Trudeau, de la première ministre de l'Ontario Caitlin Wynn, du maire d'Ottawa Jim Watson et d'autres invités d'honneur.
 Depuis, le fondateur, avec ses fonds propres et ses dons, n'a cessé d'y installer de nouvelles sculptures thématiques.
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Sculptures</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Actuellement, il y a les sections suivantes dans le parc :
 Zone A Unité de Réalité
